--- a/Finflux Automation Excels/Client/5044-CompondingPenalityCharge-MoraoriumOnPrinciple2-4thInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5044-CompondingPenalityCharge-MoraoriumOnPrinciple2-4thInstallment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -255,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -283,6 +290,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -610,7 +618,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +731,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1078,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1812,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>3861</v>
+        <v>364</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1813,22 +1821,22 @@
         <v>42094</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="6">
-        <v>104.39</v>
+        <v>120.9</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6">
-        <v>0</v>
+      <c r="J2" s="7">
+        <v>10370.39</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>3860</v>
+        <v>363</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
@@ -1837,58 +1845,58 @@
         <v>42094</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6">
-        <v>104.39</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="7">
-        <v>10353.879999999999</v>
+      <c r="J3" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3858</v>
+        <v>355</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="8">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6">
-        <v>96.15</v>
+        <v>51.36</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="7">
-        <v>10249.49</v>
+      <c r="J4" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>3857</v>
+        <v>350</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="8">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="6">
-        <v>48.77</v>
+        <v>0.09</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1900,19 +1908,19 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>3845</v>
+        <v>346</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="8">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="6">
-        <v>47.38</v>
+        <v>0.01</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1924,67 +1932,67 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>3854</v>
+        <v>342</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8">
-        <v>42040</v>
+        <v>42094</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7">
-        <v>10153.34</v>
+        <v>31</v>
+      </c>
+      <c r="E7" s="6">
+        <v>52.93</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>3856</v>
+        <v>354</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="6">
-        <v>52.28</v>
+        <v>96.15</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7">
-        <v>5153.34</v>
+        <v>10249.49</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>3855</v>
+        <v>353</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="6">
-        <v>0.36</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1996,19 +2004,19 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>3841</v>
+        <v>348</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="6">
-        <v>51.92</v>
+        <v>9.32</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2020,91 +2028,91 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>3834</v>
+        <v>340</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="8">
-        <v>42004</v>
+        <v>42063</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="6">
-        <v>51.75</v>
+        <v>47.38</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="7">
-        <v>5101.0600000000004</v>
+      <c r="J11" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>3833</v>
+        <v>352</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="8">
-        <v>42004</v>
+        <v>42040</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6">
-        <v>51.75</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="7">
+        <v>10153.34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>3832</v>
+        <v>345</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="8">
-        <v>41973</v>
+        <v>42035</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="6">
-        <v>49.31</v>
+        <v>52.28</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="7">
-        <v>5049.3100000000004</v>
+        <v>5153.34</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>3831</v>
+        <v>344</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="8">
-        <v>41973</v>
+        <v>42035</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="6">
-        <v>49.31</v>
+        <v>0.36</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2116,67 +2124,67 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>3830</v>
+        <v>338</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="8">
-        <v>41948</v>
+        <v>42035</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6">
-        <v>51.01</v>
+        <v>51.92</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="5">
-        <v>5000</v>
+      <c r="J15" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>3786</v>
+        <v>337</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="8">
-        <v>41943</v>
+        <v>42004</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="6">
-        <v>44.38</v>
+        <v>51.75</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="7">
-        <v>5044.38</v>
+        <v>5101.0600000000004</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>3785</v>
+        <v>336</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="8">
-        <v>41943</v>
+        <v>42004</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="6">
-        <v>44.38</v>
+        <v>51.75</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -2188,25 +2196,145 @@
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>3784</v>
+        <v>335</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="8">
+        <v>41973</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6">
+        <v>49.31</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7">
+        <v>5049.3100000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>334</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8">
+        <v>41973</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6">
+        <v>49.31</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>333</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8">
+        <v>41948</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6">
+        <v>51.01</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>308</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="8">
+        <v>41943</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7">
+        <v>5044.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>307</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="8">
+        <v>41943</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>306</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="8">
         <v>41917</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E23" s="5">
         <v>5000</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5">
         <v>5000</v>
       </c>
     </row>
@@ -2220,12 +2348,14 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="11"/>
+    <col min="5" max="6" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2274,7 +2404,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -2305,7 +2435,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -2336,7 +2466,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
@@ -2367,7 +2497,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -2400,10 +2530,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/40/waivecharge/200" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/40/waivecharge/200"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/40/waivecharge/201" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/40/waivecharge/201"/>
-    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/40/waivecharge/202" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/40/waivecharge/202"/>
-    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/40/waivecharge/203" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/40/waivecharge/203"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/10/waivecharge/47" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/10/waivecharge/47"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/10/waivecharge/48" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/10/waivecharge/48"/>
+    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/10/waivecharge/49" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/10/waivecharge/49"/>
+    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/10/waivecharge/53" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/10/waivecharge/53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
